--- a/Odds/NFL/nfl odds 2019-20.xlsx
+++ b/Odds/NFL/nfl odds 2019-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A35513-12B2-4468-A7D8-37A19015C9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58DD23A-C620-4AF7-84F9-A7AEB7D858EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{8B047861-6494-41CC-9282-075C33718CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{8B047861-6494-41CC-9282-075C33718CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,11 +550,11 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -13802,7 +13802,7 @@
     </row>
     <row r="324" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B324" s="2">
         <v>475</v>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="325" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B325" s="2">
         <v>476</v>
@@ -17574,7 +17574,7 @@
     </row>
     <row r="416" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="2">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B416" s="2">
         <v>159</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="417" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="2">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B417" s="2">
         <v>160</v>
